--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16CB51AF-1EF2-40D8-86E9-EF551429E588}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A48F0AA7-66A0-447C-B39D-48145EF30568}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -976,56 +976,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1327,6 +1321,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1595,7 +1593,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1643,110 +1641,110 @@
       <c r="A3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="88">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <v>44951</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>44977</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>44984</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>44991</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>44998</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45005</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45012</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45019</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45026</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2375,7 +2373,7 @@
       <c r="A9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="83" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="70" t="s">
@@ -2457,14 +2455,14 @@
       <c r="A10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="83" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="70" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="64">
         <f>F9</f>
@@ -2538,7 +2536,7 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="83" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="70" t="s">
@@ -2692,14 +2690,14 @@
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="84" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="27">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="65">
         <f>E9</f>
@@ -2773,7 +2771,7 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="90" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="72" t="s">
@@ -2854,7 +2852,7 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="84" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="72" t="s">
@@ -2935,7 +2933,7 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="84" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="72" t="s">
@@ -3016,7 +3014,7 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="72" t="s">
@@ -3094,7 +3092,7 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="84" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="72" t="s">
@@ -3172,7 +3170,7 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="72" t="s">
@@ -3250,7 +3248,7 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="84" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="72" t="s">
@@ -3401,7 +3399,7 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="85" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="74" t="s">
@@ -3482,7 +3480,7 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="85" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -3636,7 +3634,7 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="86" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="76" t="s">
@@ -3717,7 +3715,7 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="86" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="76" t="s">
@@ -3798,10 +3796,10 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="89" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="37">
@@ -3879,7 +3877,7 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="88" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="76" t="s">
@@ -3960,10 +3958,10 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="89" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="37">
@@ -4038,10 +4036,10 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="89" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="37">
@@ -4116,14 +4114,14 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E31" s="67">
         <f>E13</f>
@@ -4194,10 +4192,10 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="89" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="37">
@@ -4272,10 +4270,10 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="89" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="37">
@@ -4350,10 +4348,10 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="89" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="37">
@@ -4428,10 +4426,10 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="89" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="37">
@@ -4506,10 +4504,10 @@
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="89" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="37">
@@ -4584,10 +4582,10 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="89" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="37">

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A48F0AA7-66A0-447C-B39D-48145EF30568}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BBBD714-285E-4BEF-823E-A8D4281BF8DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -208,18 +208,12 @@
     <t>Edit Database</t>
   </si>
   <si>
-    <t>Create "SHOPPERS" Table</t>
-  </si>
-  <si>
     <t>Create this Gantt Chart</t>
   </si>
   <si>
     <t>Editing Shopping Menu</t>
   </si>
   <si>
-    <t>Create the Menu if its not yet made</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>Mike</t>
   </si>
   <si>
-    <t>Add new shopper to database</t>
-  </si>
-  <si>
     <t>Add "Purchase" Option to Menu</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>Issue ID 8: Import files into database</t>
   </si>
   <si>
-    <t>Modify Quanty on Hand to Random #</t>
-  </si>
-  <si>
     <t>Remove Uneeded Comments</t>
   </si>
   <si>
@@ -308,6 +296,27 @@
   </si>
   <si>
     <t>Get Admin Login Errors be More Exact</t>
+  </si>
+  <si>
+    <t>Add new shopper to DB</t>
+  </si>
+  <si>
+    <t>Modify Qantity to a Random #</t>
+  </si>
+  <si>
+    <t>Create SHOPPERS Table</t>
+  </si>
+  <si>
+    <t>Create the Menu if not made yet</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
   </si>
 </sst>
 </file>
@@ -513,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +599,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -744,7 +765,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1020,6 +1041,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1591,9 +1627,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1652,6 +1688,32 @@
         <v>44951</v>
       </c>
       <c r="F3" s="95"/>
+      <c r="I3" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
@@ -2374,10 +2436,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="22">
         <v>0.85</v>
@@ -2456,10 +2518,10 @@
         <v>33</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -2537,10 +2599,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="83" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2620,7 +2682,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="24"/>
@@ -2691,10 +2753,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="84" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="27">
         <v>0.8</v>
@@ -2772,21 +2834,21 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="90" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="27">
         <v>0</v>
       </c>
       <c r="E14" s="65">
-        <f>F13</f>
-        <v>44981</v>
+        <f>E9+2</f>
+        <v>44982</v>
       </c>
       <c r="F14" s="65">
         <f>E14</f>
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17">
@@ -2853,16 +2915,16 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="84" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="65">
-        <f>F14</f>
+        <f>F13</f>
         <v>44981</v>
       </c>
       <c r="F15" s="65">
@@ -2934,21 +2996,21 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="27">
         <v>0</v>
       </c>
       <c r="E16" s="65">
         <f>F14</f>
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="F16" s="65">
         <f>E16+1</f>
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
@@ -3015,21 +3077,21 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="27">
         <v>0</v>
       </c>
       <c r="E17" s="65">
         <f>F16</f>
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="F17" s="65">
         <f>E17</f>
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -3092,11 +3154,11 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="84" t="s">
-        <v>53</v>
+      <c r="B18" s="98" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="27">
         <v>0</v>
@@ -3171,10 +3233,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="27">
         <v>0</v>
@@ -3249,21 +3311,21 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="27">
         <v>0</v>
       </c>
       <c r="E20" s="65">
         <f>F17</f>
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="F20" s="65">
         <f>E20</f>
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -3329,7 +3391,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="29"/>
@@ -3400,21 +3462,21 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="32">
         <v>0</v>
       </c>
       <c r="E22" s="66">
         <f>F20+1</f>
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="F22" s="66">
         <f>E22+1</f>
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
@@ -3481,16 +3543,16 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="32">
         <v>0</v>
       </c>
       <c r="E23" s="66">
-        <f>E22</f>
+        <f>F19+1</f>
         <v>44983</v>
       </c>
       <c r="F23" s="66">
@@ -3564,7 +3626,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="34"/>
@@ -3635,10 +3697,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="86" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="37">
         <v>0</v>
@@ -3716,10 +3778,10 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="86" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="37">
         <v>0</v>
@@ -3797,10 +3859,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="88" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" s="37">
         <v>0.05</v>
@@ -3878,10 +3940,10 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="88" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="37">
         <v>0</v>
@@ -3959,10 +4021,10 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="87" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="37">
         <v>0</v>
@@ -4037,13 +4099,13 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="86" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" s="37">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E30" s="67">
         <f>F32</f>
@@ -4115,10 +4177,10 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="86" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="37">
         <v>0.8</v>
@@ -4193,10 +4255,10 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="86" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="37">
         <v>0.5</v>
@@ -4271,10 +4333,10 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="37">
         <v>0</v>
@@ -4349,10 +4411,10 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" s="37">
         <v>0</v>
@@ -4427,13 +4489,13 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="86" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="37">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E35" s="67">
         <f>E9</f>
@@ -4505,10 +4567,10 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="86" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="37">
         <v>0.1</v>
@@ -4583,10 +4645,10 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="87" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" s="89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="37">
         <v>0.01</v>
@@ -4813,7 +4875,7 @@
       <c r="C42" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4826,6 +4888,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="S3:X3"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="14">

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BBBD714-285E-4BEF-823E-A8D4281BF8DC}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069BA28C-D5F5-4D3D-8FB0-4597D0772E53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,7 +765,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1041,15 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,8 +1619,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1688,32 +1679,32 @@
         <v>44951</v>
       </c>
       <c r="F3" s="95"/>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="102" t="s">
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
@@ -2759,7 +2750,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="27">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E13" s="65">
         <f>E9</f>
@@ -3154,7 +3145,7 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="84" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="72" t="s">
@@ -3703,7 +3694,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="67">
         <f>E9</f>
@@ -3784,7 +3775,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="67">
         <f>F25</f>
@@ -4183,7 +4174,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="37">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E31" s="67">
         <f>E13</f>
@@ -4261,7 +4252,7 @@
         <v>45</v>
       </c>
       <c r="D32" s="37">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="E32" s="67">
         <f>F29</f>

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069BA28C-D5F5-4D3D-8FB0-4597D0772E53}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE3F105-650E-459E-8332-411CC6D42045}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,8 +1619,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE3F105-650E-459E-8332-411CC6D42045}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE03B79A-9138-4E40-BEAD-C8BE77F1FC76}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,8 +1619,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2433,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="22">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E9" s="64">
         <v>44980</v>
@@ -3937,7 +3937,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="67">
         <f>F26</f>
@@ -4252,7 +4252,7 @@
         <v>45</v>
       </c>
       <c r="D32" s="37">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="E32" s="67">
         <f>F29</f>
@@ -4486,7 +4486,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E35" s="67">
         <f>E9</f>
@@ -4918,7 +4918,7 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToWidth="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE03B79A-9138-4E40-BEAD-C8BE77F1FC76}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7CA9CE2-6BA9-47CC-B3DB-ED44A421BA91}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,8 +1619,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2831,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="65">
         <f>E9+2</f>
@@ -2993,7 +2993,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="27">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E16" s="65">
         <f>F14</f>

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7CA9CE2-6BA9-47CC-B3DB-ED44A421BA91}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D16325-7680-4746-A8B2-8D4B5DA254D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,8 +1619,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4330,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E33" s="67">
         <f>F30</f>
@@ -4408,7 +4408,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E34" s="67">
         <f>F33</f>
@@ -4486,7 +4486,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="37">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E35" s="67">
         <f>E9</f>

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{91B8015C-2AD8-4214-8861-C67B5F7B4C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D16325-7680-4746-A8B2-8D4B5DA254D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED30DD8-F24A-4D46-BE0D-06E0CFAD93B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1348,10 +1348,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1619,8 +1615,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3074,7 +3070,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="65">
         <f>F16</f>
@@ -3308,7 +3304,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="65">
         <f>F17</f>
@@ -3459,7 +3455,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="66">
         <f>F20+1</f>

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED30DD8-F24A-4D46-BE0D-06E0CFAD93B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3A690-DF64-4ED2-B685-D14260F70C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,8 +1615,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2746,7 +2746,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E13" s="65">
         <f>E9</f>
@@ -2908,7 +2908,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="65">
         <f>F13</f>
@@ -3070,7 +3070,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="27">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E17" s="65">
         <f>F16</f>
@@ -3148,7 +3148,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="65">
         <f>F15</f>
@@ -3226,7 +3226,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="65">
         <f>F18</f>
@@ -3304,7 +3304,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="27">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E20" s="65">
         <f>F17</f>
@@ -3455,7 +3455,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="66">
         <f>F20+1</f>
@@ -3536,7 +3536,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="66">
         <f>F19+1</f>
@@ -4170,7 +4170,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E31" s="67">
         <f>E13</f>
@@ -4482,7 +4482,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="37">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="E35" s="67">
         <f>E9</f>

--- a/Week 7 Gantt Chart.xlsx
+++ b/Week 7 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3A690-DF64-4ED2-B685-D14260F70C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673193FA-A06E-412B-A97D-7DDF0CB4B236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,8 +1615,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL3" sqref="AL3"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3455,7 +3455,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="66">
         <f>F20+1</f>
@@ -3536,7 +3536,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="66">
         <f>F19+1</f>
@@ -4916,7 +4916,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" fitToWidth="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="70" fitToWidth="0" orientation="portrait" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
